--- a/src/main/resources/xlsx/pcs/wy-7-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-7-1.xlsx
@@ -77,6 +77,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>全校分党委数：pc     全校党支部数：bc     全校党员总数（含预备党员）：mc         应参会党员总数：ec     实参会党员总数：ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">title候选人初步人选名册
 </t>
@@ -89,12 +93,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（“一下一上”阶段）</t>
+      <t>（“stage”阶段）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校分党委数：pc     全校党支部数：bc     全校党员总数（含预备党员）：mc         应参会党员总数：ec     实参会党员总数：ac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,6 +289,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -312,9 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,7 +599,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,61 +615,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -697,8 +697,8 @@
       <c r="J4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -715,18 +715,18 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/src/main/resources/xlsx/pcs/wy-7-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-7-1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在单位及职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +91,10 @@
       </rPr>
       <t>（“stage”阶段）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -632,7 +632,7 @@
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -662,10 +662,10 @@
       <c r="I3" s="18"/>
       <c r="J3" s="19"/>
       <c r="K3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -683,19 +683,19 @@
         <v>5</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>

--- a/src/main/resources/xlsx/pcs/wy-7-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-7-1.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全校分党委数：pc     全校党支部数：bc     全校党员总数（含预备党员）：mc         应参会党员总数：ec     实参会党员总数：ac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">title候选人初步人选名册
 </t>
@@ -95,6 +91,10 @@
   </si>
   <si>
     <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校二级党组织数：pc     全校党支部数：bc     全校党员总数（含预备党员）：mc         应参会党员总数：ec     实参会党员总数：ac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -632,7 +632,7 @@
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
